--- a/array_data.xlsx
+++ b/array_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P6"/>
+  <dimension ref="A2:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wine store</t>
+          <t>o value</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JOUR Genève Sàrl</t>
+          <t>Café le 6ème continent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -753,65 +753,4422 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Route de France 19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Morgins</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>mailto:max@t-bar.ch</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>+41 24 477 31 95</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/morgins/route-de-france-19/t-bar-music-lounge</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lounge,Restaurant,Bar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Restaurant Accademia del Gusto Tel. +41 44 241 62 43</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Max Monny</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Route de France 19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1875</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Morgins</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>+41 79 933 18 35</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/monthey/avenue-de-france-59/bb-bar-a-beaute-sarl</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BB bar à beauté Sarl</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Carrisi Sabrina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Coiffure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avenue de France 59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Monthey</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>+41 24 471 11 44</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lausanne/avenue-de-france-18a/iris-cafe-restaurant-bar</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Restaurant</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>o value</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Route de France 19</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Restaurant Accademia del Gusto Tel. +41 44 241 62 43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Avenue de France 18A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/ste-croix/rue-de-france-3/le-coin-du-bar-theintz-jean-claude</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Le Coin Du Bar Theintz Jean-Claude</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rue de France 3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ste-Croix</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>VD</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sierre/avenue-de-france-35/pigalle-lounge-bar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pigalle lounge bar</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Avenue de France 35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sierre</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/le-locle/rue-de-france-82/shop-le-rallye-jubin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Petrol station shop,Bar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Shop Le Rallye, Jubin
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Marquier Fabien</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>station-service, shop, bar, CBD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rue de France 82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Locle</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mailto:shoprallye@bluewin.ch</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>+41 32 931 02 24</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-24/opera-sion</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Restaurant,Italian cuisine,Restaurant equipment rental,Pizzeria,Regional products,Bar,Lounge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>L'unique Tartare</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Concept Gastronomique Italien</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Avenue de France 24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>opera-sion.ch</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>+41 27 322 34 34</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/profile.php?id=100089454511055</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/opera.sion?hl=fr</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/locarno/viale-francesco-balli-2/bar-festival</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Restaurant,Bar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ristorante Pizzeria Mama Mia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Viale Francesco Balli 2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Locarno</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>+41 91 752 12 59</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/bissone/piazza-francesco-borromini-1/bar-lido-di-bissone</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Orologio</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Piazza Francesco Borromini 1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bissone</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>mailto:info@barlidobissone.ch</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mendrisio/via-francesco-borromini-18/bikers-bar-bistrot</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LA TANA DEL SAURO - Ristorante Funivia Serpiano</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mendrisio</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>+41 91 225 02 46</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mendrisio/via-francesco-borromini-10/hotel-coronado-3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Restaurant,Hotel,Cafés,Bar</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Grotto San Martino</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>albergo e ristorante</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mendrisio</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>www.hotelcoronado.ch</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mail/3983e30da0875611</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>+41 91 630 30 30</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/bissone/piazza-francesco-borromini-2/la-palma-albergo-ristorante</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Restaurant,Hotel,Italian cuisine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>La Palma Albergo-Ristorante
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>futuraRistoranti SAGL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hotel e Ristorante</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Piazza Francesco Borromini 2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bissone</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>www.palmabissone.ch</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>mailto:lapalma@futuraristoranti.com</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>+41 91 649 84 06</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/AlbergoRistoranteLaPalma</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/locarno/via-francesco-ballerini-1/ristorante-amici-di-bacco-la-morettina</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Restaurant,Pizzeria,Wine store</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ristorante Amici di Bacco - La Morettina</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>c/o Club Tennis Locarno</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Via Francesco Ballerini 1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Locarno</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>www.amicidibacco.ch</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>mailto:info@amicidibacco.ch</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>+41 91 751 11 16</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Amici-di-Bacco-Trattoria-Pizzeria-Enoteca-494275280774425</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/bissone/piazza-francesco-borromini-15/a-f33-sagl</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>La Veranda</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Piazza Francesco Borromini 15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bissone</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/locarno/via-san-francesco-1/albergo-giacometti</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hotel,Restaurant,Bar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Svizzero</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>di Giacometti Maurizio</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Via San Francesco 1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Locarno</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mail/9cbfae80ae40d75a</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>+41 91 751 87 82</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/novaggio/piazza-francesco-ferrer-10/albergo-ristorante-belcantone</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ristorante - Pizzeria San Michele</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Piazza Francesco Ferrer 10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6986</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Novaggio</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>mailto:info@belcantone.ch</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>+41 91 224 49 61</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mendrisio/via-francesco-borromini-6/kentucky-fried-chicken</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Grotto Eguaglianza</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 6</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Mendrisio</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>+41 91 646 13 82</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mendrisio/via-francesco-borromini-20/la-fortuna</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pizzeria,Restaurant,Bar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Grotto Eguaglianza</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>pizzeria, ristorante</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mendrisio</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mail/4fe52e56bcce7028</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>+41 91 646 15 89</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/bissone/piazza-francesco-borromini-29/ristorante-mascotte</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ristorante Millefiori</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>fam. Carnevale</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Piazza Francesco Borromini 29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bissone</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>+41 91 649 63 63</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/vacallo/via-poeta-francesco-chiesa-11/ristorante-pizzeria-al-timone</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Restaurant,Pizzeria</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Osteria Manciana Tel. +41 91 684 11 36</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Maria Joanna Bourourou</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Via Poeta Francesco Chiesa 11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6833</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Vacallo</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mail/13d76ba87d98ba71</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>+41 91 682 60 45</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lugano/via-francesco-soave-10/ristorante-soave-10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pizzeria,Restaurant</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ristorante - Pizzeria San Michele</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Via Francesco Soave 10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>www.soave10.ch</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>mailto:email@soave10.ch</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>+41 91 922 01 70</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mendrisio/via-francesco-borromini-10/unicorn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Restaurant Accademia del Gusto Tel. +41 44 241 62 43</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mendrisio</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>mailto:drink@unicorn-bar.ch</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>+41 91 640 95 27</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/morbio-inferiore/via-francesco-chiesa-5/allegra-7</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bar,Bakery pastry shop</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Allegra 7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>c/o Fondazione Casa San Rocco</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Via Francesco Chiesa 5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Morbio Inferiore</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>mailto:allegra@casasanrocco.ch</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>+41 91 695 22 51</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lugano/via-francesco-borromini-3/quasar56</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ristorante Millefiori</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>mailto:fulvio.dambrosio@yahoo.it</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>+41 91 966 00 26</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/locarno/viale-francesco-balli-3/saray-kebab</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ristorante Costa Azzurra</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Viale Francesco Balli 3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Locarno</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/tesserete/piazza-giuseppe-lepori-1/osteria-papilla</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>La Fermata Lugano</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Piazza Giuseppe Lepori 1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>6950</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tesserete</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>mailto:osteriapapilla@gmail.com</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-6/rong-town-sion-sarl-2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Chinese cuisine,Takeout,Home delivery service,Restaurant</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rong Town Sion Sàrl
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cuisine Chinoise</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Avenue de France 6</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>rongtown.ch</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>+41 27 321 17 49</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/morgins/route-de-france-22/snowline</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sporting goods,Bicycles,Renting</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Snowline</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sigg Rolf</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Route de France 22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>1875</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Morgins</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>o value</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>mailto:max@t-bar.ch</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>+41 24 477 31 95</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>o value</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>o value</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>o value</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>www.snowline.ch</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>mailto:info@snowline.ch</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>+41 24 477 29 06</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>+41 79 239 87 57</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lausanne/avenue-de-france-38/daisuki</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Restaurant Accademia del Gusto Tel. +41 44 241 62 43</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bar à ramen</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Avenue de France 38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>+41 21 320 45 55</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-15/pasta-connection</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Takeout,Restaurant,Italian cuisine,Home delivery service</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Aux Dix Vins Bramois Sàrl</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mr Spano</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Restaurant, pasta bar, take away</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Avenue de France 15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>pastaconnection.ch</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>mailto:info@pastaconnection.ch</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>+41 27 322 22 52</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pg/pastaconnectionsion/about?ref=page_internal</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pastaconnectionsion</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-6/etienne-barras</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dentist</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Antonioli Grégoire</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Dr méd. dent. SVMD-SSO</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Avenue de France 6</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>+41 27 322 64 55</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lausanne/avenue-de-france-40/didier-gillieron</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Motorcycles, apparel and accessories,Motorcycles and scooters</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Gilliéron, Didier
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Piaggio service cyclomoteurs-scooters</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Avenue de France 40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>www.vente-reparation-scooters.ch</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>mailto:crazyscoot4@gmail.com</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>+41 21 624 68 87</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-11/barber-shop-coiffeur-burhan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Barber Shop Coiffeur Burhan</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Avenue de France 11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lausanne/avenue-de-france-34/el-barrio-food-sarl</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>El Barrio Food Sàrl</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Avenue de France 34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-11/goran-barber</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Goran Barber</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Avenue de France 11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>+41 78 209 12 17</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-61/leos-barber-shop-haradini</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Leo's Barber Shop Haradini</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Avenue de France 61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sion/avenue-de-france-61/leos-barber-shop-miftari</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Leo's Barber Shop Miftari</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Avenue de France 61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sierre/avenue-de-france-43/institut-capillaire-2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Wigs,Hairdresser</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Institut Capillaire
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Salamin Muriel</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Perruques, Complément capillaire, coiffure, onglerie</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Avenue de France 43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Sierre</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>www.institut-capillaire-salamin.com</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>mailto:salamin.muriel@bluewin.ch</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>+41 27 455 18 67</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>+41 78 801 80 67</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/geneve/avenue-de-france-17/claude-barras</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Barras, Claude</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>réalisateur</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Avenue de France 17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Genève</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>+41 21 311 22 83</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>+41 78 620 59 69</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/le-brassus/route-de-france-23/philippe-barth</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Barth, Philippe</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ébèniste</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Route de France 23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Le Brassus</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>VD</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>+41 21 845 52 12</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/st-cergue/route-de-france-6/dietmar-et-barbara-haller</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Haller, Dietmar et Barbara</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Route de France 6</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>St-Cergue</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>VD</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>+41 22 361 92 92</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lausanne/avenue-de-france-24/chantal-et-barlen-mootoo-curpen</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mootoo Curpen, Chantal et Barlen (-Nagloo)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Avenue de France 24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>+41 21 626 18 04</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/sierre/avenue-de-france-9/rui-sousa-barbosa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sousa Barbosa, Rui</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Avenue de France 9</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sierre</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>+41 27 565 53 83</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/vallorbe/rue-de-france-16/duilio-londei</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Londei, Duilio (-Bartolini)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ouvr. industriel</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Rue de France 16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Vallorbe</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>VD</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>+41 21 843 24 27</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/mendrisio/via-francesco-borromini-20/quadrifoglio</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Raffles</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Quadrifoglio
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bar-sala tombole di Conconi Gian Marco e Mary</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>6850</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mendrisio</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>quadrifogliotombola-dancing.ch</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>mailto:tombole@bluewin.ch</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>+41 91 646 11 08</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/bulle/chemin-de-champ-francey-8/david-barras</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Doctors,General internal medicine</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ferrara Marcellino Jorge</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Dr méd. spéc. FMH médecine interne générale</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Chemin de Champ-Francey 8</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bulle</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/locarno/via-francesco-ballerini-11/barbara-simona-dauchy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Simona Dauchy, Barbara</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>avvocata membro OATi, notaia e mediatrice FSA studio legale e notarile</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Via Francesco Ballerini 11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Locarno</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>mailto:barbara.simona@ticino.com</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>+41 91 751 96 26</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/vacallo/via-francesco-rusca-7/mario-barbone</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Barbone, Mario</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>giardiniere</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Via Francesco Rusca 7</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>6833</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Vacallo</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>+41 91 682 87 07</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/vacallo/via-poeta-francesco-chiesa-12a/morena-barattolo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Barattolo, Morena (-Zeni)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Via Poeta Francesco Chiesa 12A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6833</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Vacallo</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>+41 91 683 71 92</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/lugano/via-francesco-borromini-7a/michele-barbato</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Barbato, Michele</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 7A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>6900</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>+41 91 993 05 23</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/bellinzona/via-francesco-borromini-3/mario-barilli</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Barilli, Mario</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>macchinista FFS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 3</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>+41 91 825 84 49</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/morbio-inferiore/via-francesco-chiesa-43b/roberto-barin</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Barin, Roberto (-Barella)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Via Francesco Chiesa 43B</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Morbio Inferiore</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>+41 91 683 12 53</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/biasca/via-francesco-borromini-29/raffaele-e-barbara-filippini</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Filippini, Raffaele e Barbara (-Poretti)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Ing. dipl. ETH/ Arch. dipl. ETH</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Via Francesco Borromini 29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6710</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Biasca</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>+41 91 862 15 25</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/morbio-inferiore/via-francesco-chiesa-43a/davide-e-barbara-maggi</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Maggi, Davide e Barbara (-Cavadini)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Via Francesco Chiesa 43A</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Morbio Inferiore</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>+41 91 630 93 77</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://tel.search.ch/gordola/via-francesca-6a/roberto-e-barbara-salmina</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Salmina, Roberto e Barbara</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>radioelettricista</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Via Francesca 6a</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>6596</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Gordola</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TI</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>+41 91 751 22 86</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>o value</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>o value</t>
         </is>
